--- a/feedback_forms/testing_versions/standard/dairy_digester_operator_feedback_v006_test_02_bad_data.xlsx
+++ b/feedback_forms/testing_versions/standard/dairy_digester_operator_feedback_v006_test_02_bad_data.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tony_local\pycharm\feedback_portal\feedback_forms\testing_versions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\local\cursor\feedback_portal\feedback_forms\testing_versions\standard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A525E44-E33B-4E88-9A21-8A8E3BBAC58B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECCC5BBD-1223-4F94-90AA-4D82F5F5E05D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="ZZdeBZIs3h22LxegpdwwuHpsWEWuB9x+vvy4q5aW62Xkr4aTJmE005hpcsO5kgTp7rwoerT5PSsZglAASxcSXg==" workbookSaltValue="WgC7rnmlwtCTlwVo9LJMCQ==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="3587" yWindow="1020" windowWidth="19200" windowHeight="11387" tabRatio="705" xr2:uid="{908CDDAE-4CC3-4DCD-AAA9-A26C259C2234}"/>
+    <workbookView xWindow="4783" yWindow="2434" windowWidth="21728" windowHeight="13260" tabRatio="705" xr2:uid="{908CDDAE-4CC3-4DCD-AAA9-A26C259C2234}"/>
   </bookViews>
   <sheets>
     <sheet name="Feedback Form" sheetId="6" r:id="rId1"/>
@@ -3810,26 +3810,26 @@
   <dimension ref="B1:G97"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="4.1171875" style="9" customWidth="1"/>
-    <col min="2" max="2" width="65.703125" style="9" customWidth="1"/>
-    <col min="3" max="3" width="4.703125" style="9" customWidth="1"/>
-    <col min="4" max="4" width="65.703125" style="9" customWidth="1"/>
-    <col min="5" max="5" width="4.1171875" style="9" customWidth="1"/>
+    <col min="1" max="1" width="4.07421875" style="9" customWidth="1"/>
+    <col min="2" max="2" width="65.69140625" style="9" customWidth="1"/>
+    <col min="3" max="3" width="4.69140625" style="9" customWidth="1"/>
+    <col min="4" max="4" width="65.69140625" style="9" customWidth="1"/>
+    <col min="5" max="5" width="4.07421875" style="9" customWidth="1"/>
     <col min="6" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" s="33" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="2:5" s="33" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B1" s="32"/>
       <c r="C1" s="32"/>
       <c r="D1" s="32"/>
       <c r="E1" s="32"/>
     </row>
-    <row r="2" spans="2:5" s="33" customFormat="1" ht="51" x14ac:dyDescent="0.5">
+    <row r="2" spans="2:5" s="33" customFormat="1" ht="51" x14ac:dyDescent="0.4">
       <c r="B2" s="34" t="s">
         <v>0</v>
       </c>
@@ -3837,7 +3837,7 @@
       <c r="D2" s="34"/>
       <c r="E2" s="34"/>
     </row>
-    <row r="3" spans="2:5" s="33" customFormat="1" ht="51" x14ac:dyDescent="0.5">
+    <row r="3" spans="2:5" s="33" customFormat="1" ht="51" x14ac:dyDescent="0.4">
       <c r="B3" s="35" t="s">
         <v>1</v>
       </c>
@@ -3845,26 +3845,26 @@
       <c r="D3" s="34"/>
       <c r="E3" s="34"/>
     </row>
-    <row r="4" spans="2:5" s="33" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="2:5" s="33" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="36"/>
       <c r="C4" s="36"/>
       <c r="D4" s="36"/>
       <c r="E4" s="37"/>
     </row>
-    <row r="5" spans="2:5" s="33" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="2:5" s="33" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B5" s="32"/>
       <c r="C5" s="32"/>
       <c r="D5" s="32"/>
       <c r="E5" s="32"/>
     </row>
-    <row r="6" spans="2:5" s="40" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="2:5" s="40" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="38"/>
       <c r="C6" s="38"/>
       <c r="D6" s="38"/>
       <c r="E6" s="39"/>
     </row>
-    <row r="7" spans="2:5" s="33" customFormat="1" x14ac:dyDescent="0.5"/>
-    <row r="8" spans="2:5" s="43" customFormat="1" ht="15" x14ac:dyDescent="0.5">
+    <row r="7" spans="2:5" s="33" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="8" spans="2:5" s="43" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="B8" s="41" t="s">
         <v>2</v>
       </c>
@@ -3872,7 +3872,7 @@
       <c r="D8" s="42"/>
       <c r="E8" s="42"/>
     </row>
-    <row r="9" spans="2:5" s="43" customFormat="1" ht="15" x14ac:dyDescent="0.5">
+    <row r="9" spans="2:5" s="43" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="B9" s="44" t="s">
         <v>3</v>
       </c>
@@ -3880,7 +3880,7 @@
       <c r="D9" s="45"/>
       <c r="E9" s="42"/>
     </row>
-    <row r="10" spans="2:5" s="43" customFormat="1" ht="15" x14ac:dyDescent="0.5">
+    <row r="10" spans="2:5" s="43" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="B10" s="46" t="s">
         <v>4</v>
       </c>
@@ -3888,7 +3888,7 @@
       <c r="D10" s="47"/>
       <c r="E10" s="42"/>
     </row>
-    <row r="11" spans="2:5" s="43" customFormat="1" ht="15" x14ac:dyDescent="0.5">
+    <row r="11" spans="2:5" s="43" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="B11" s="41" t="s">
         <v>5</v>
       </c>
@@ -3896,7 +3896,7 @@
       <c r="D11" s="42"/>
       <c r="E11" s="42"/>
     </row>
-    <row r="12" spans="2:5" s="43" customFormat="1" ht="15" x14ac:dyDescent="0.5">
+    <row r="12" spans="2:5" s="43" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="B12" s="41" t="s">
         <v>6</v>
       </c>
@@ -3904,7 +3904,7 @@
       <c r="D12" s="42"/>
       <c r="E12" s="42"/>
     </row>
-    <row r="13" spans="2:5" s="43" customFormat="1" ht="15" x14ac:dyDescent="0.5">
+    <row r="13" spans="2:5" s="43" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="B13" s="41" t="s">
         <v>7</v>
       </c>
@@ -3912,7 +3912,7 @@
       <c r="D13" s="42"/>
       <c r="E13" s="42"/>
     </row>
-    <row r="14" spans="2:5" s="43" customFormat="1" ht="15" x14ac:dyDescent="0.5">
+    <row r="14" spans="2:5" s="43" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="B14" s="41" t="s">
         <v>8</v>
       </c>
@@ -3920,7 +3920,7 @@
       <c r="D14" s="42"/>
       <c r="E14" s="42"/>
     </row>
-    <row r="15" spans="2:5" s="43" customFormat="1" ht="15" x14ac:dyDescent="0.5">
+    <row r="15" spans="2:5" s="43" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="B15" s="48" t="s">
         <v>9</v>
       </c>
@@ -3928,7 +3928,7 @@
       <c r="D15" s="49"/>
       <c r="E15" s="49"/>
     </row>
-    <row r="16" spans="2:5" s="43" customFormat="1" ht="15" x14ac:dyDescent="0.5">
+    <row r="16" spans="2:5" s="43" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="B16" s="41" t="s">
         <v>10</v>
       </c>
@@ -3936,7 +3936,7 @@
       <c r="D16" s="42"/>
       <c r="E16" s="42"/>
     </row>
-    <row r="17" spans="2:5" s="43" customFormat="1" ht="15" x14ac:dyDescent="0.5">
+    <row r="17" spans="2:5" s="43" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="B17" s="41" t="s">
         <v>11</v>
       </c>
@@ -3944,25 +3944,25 @@
       <c r="D17" s="42"/>
       <c r="E17" s="42"/>
     </row>
-    <row r="18" spans="2:5" s="33" customFormat="1" x14ac:dyDescent="0.5"/>
-    <row r="19" spans="2:5" s="40" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="18" spans="2:5" s="33" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="19" spans="2:5" s="40" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="38"/>
       <c r="C19" s="38"/>
       <c r="D19" s="38"/>
       <c r="E19" s="39"/>
     </row>
-    <row r="20" spans="2:5" s="33" customFormat="1" x14ac:dyDescent="0.5"/>
-    <row r="21" spans="2:5" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.5">
+    <row r="20" spans="2:5" s="33" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="21" spans="2:5" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="B21" s="41" t="s">
         <v>12</v>
       </c>
       <c r="C21" s="42"/>
       <c r="D21" s="61">
-        <v>2002</v>
+        <v>1002002</v>
       </c>
       <c r="E21" s="41"/>
     </row>
-    <row r="22" spans="2:5" s="43" customFormat="1" ht="15" x14ac:dyDescent="0.5">
+    <row r="22" spans="2:5" s="43" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="B22" s="41" t="s">
         <v>13</v>
       </c>
@@ -3972,7 +3972,7 @@
       </c>
       <c r="E22" s="42"/>
     </row>
-    <row r="23" spans="2:5" s="43" customFormat="1" ht="15" x14ac:dyDescent="0.5">
+    <row r="23" spans="2:5" s="43" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="B23" s="41" t="s">
         <v>14</v>
       </c>
@@ -3982,7 +3982,7 @@
       </c>
       <c r="E23" s="42"/>
     </row>
-    <row r="24" spans="2:5" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.5">
+    <row r="24" spans="2:5" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="B24" s="41" t="s">
         <v>15</v>
       </c>
@@ -3992,7 +3992,7 @@
       </c>
       <c r="E24" s="41"/>
     </row>
-    <row r="25" spans="2:5" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.5">
+    <row r="25" spans="2:5" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="B25" s="41" t="s">
         <v>16</v>
       </c>
@@ -4002,7 +4002,7 @@
       </c>
       <c r="E25" s="41"/>
     </row>
-    <row r="26" spans="2:5" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.5">
+    <row r="26" spans="2:5" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="B26" s="41" t="s">
         <v>17</v>
       </c>
@@ -4012,15 +4012,15 @@
       </c>
       <c r="E26" s="41"/>
     </row>
-    <row r="27" spans="2:5" s="33" customFormat="1" x14ac:dyDescent="0.5"/>
-    <row r="28" spans="2:5" s="40" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="27" spans="2:5" s="33" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="28" spans="2:5" s="40" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="38"/>
       <c r="C28" s="38"/>
       <c r="D28" s="38"/>
       <c r="E28" s="39"/>
     </row>
-    <row r="29" spans="2:5" s="33" customFormat="1" x14ac:dyDescent="0.5"/>
-    <row r="30" spans="2:5" s="33" customFormat="1" ht="30" x14ac:dyDescent="0.5">
+    <row r="29" spans="2:5" s="33" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="30" spans="2:5" s="33" customFormat="1" ht="30" x14ac:dyDescent="0.4">
       <c r="B30" s="50" t="s">
         <v>19</v>
       </c>
@@ -4028,7 +4028,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="31" spans="2:5" s="33" customFormat="1" ht="15.35" x14ac:dyDescent="0.5">
+    <row r="31" spans="2:5" s="33" customFormat="1" ht="15.45" x14ac:dyDescent="0.4">
       <c r="B31" s="50" t="s">
         <v>21</v>
       </c>
@@ -4036,7 +4036,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="32" spans="2:5" s="33" customFormat="1" ht="15.35" x14ac:dyDescent="0.5">
+    <row r="32" spans="2:5" s="33" customFormat="1" ht="15.45" x14ac:dyDescent="0.4">
       <c r="B32" s="50" t="s">
         <v>23</v>
       </c>
@@ -4044,7 +4044,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="33" spans="2:5" s="10" customFormat="1" ht="15.35" x14ac:dyDescent="0.5">
+    <row r="33" spans="2:5" s="10" customFormat="1" ht="15.45" x14ac:dyDescent="0.4">
       <c r="B33" s="51" t="s">
         <v>25</v>
       </c>
@@ -4054,7 +4054,7 @@
       </c>
       <c r="E33" s="52"/>
     </row>
-    <row r="34" spans="2:5" s="10" customFormat="1" ht="15.35" x14ac:dyDescent="0.5">
+    <row r="34" spans="2:5" s="10" customFormat="1" ht="15.45" x14ac:dyDescent="0.4">
       <c r="B34" s="51" t="s">
         <v>27</v>
       </c>
@@ -4064,7 +4064,7 @@
       </c>
       <c r="E34" s="52"/>
     </row>
-    <row r="35" spans="2:5" s="10" customFormat="1" ht="15.35" x14ac:dyDescent="0.5">
+    <row r="35" spans="2:5" s="10" customFormat="1" ht="15.45" x14ac:dyDescent="0.4">
       <c r="B35" s="51" t="s">
         <v>29</v>
       </c>
@@ -4074,15 +4074,15 @@
       </c>
       <c r="E35" s="52"/>
     </row>
-    <row r="36" spans="2:5" s="33" customFormat="1" x14ac:dyDescent="0.5"/>
-    <row r="37" spans="2:5" s="40" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="36" spans="2:5" s="33" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="37" spans="2:5" s="40" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B37" s="38"/>
       <c r="C37" s="38"/>
       <c r="D37" s="38"/>
       <c r="E37" s="39"/>
     </row>
-    <row r="38" spans="2:5" s="33" customFormat="1" x14ac:dyDescent="0.5"/>
-    <row r="39" spans="2:5" s="10" customFormat="1" ht="30.35" x14ac:dyDescent="0.5">
+    <row r="38" spans="2:5" s="33" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="39" spans="2:5" s="10" customFormat="1" ht="30.45" x14ac:dyDescent="0.4">
       <c r="B39" s="51" t="s">
         <v>31</v>
       </c>
@@ -4092,7 +4092,7 @@
       </c>
       <c r="E39" s="53"/>
     </row>
-    <row r="40" spans="2:5" s="10" customFormat="1" ht="45.35" x14ac:dyDescent="0.5">
+    <row r="40" spans="2:5" s="10" customFormat="1" ht="45.45" x14ac:dyDescent="0.4">
       <c r="B40" s="54" t="s">
         <v>32</v>
       </c>
@@ -4101,7 +4101,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="41" spans="2:5" s="33" customFormat="1" ht="30.35" x14ac:dyDescent="0.5">
+    <row r="41" spans="2:5" s="33" customFormat="1" ht="30.45" x14ac:dyDescent="0.4">
       <c r="B41" s="54" t="s">
         <v>33</v>
       </c>
@@ -4109,7 +4109,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="42" spans="2:5" s="10" customFormat="1" ht="30.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="2:5" s="10" customFormat="1" ht="30.9" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B42" s="50" t="s">
         <v>34</v>
       </c>
@@ -4118,7 +4118,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="43" spans="2:5" s="10" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="43" spans="2:5" s="10" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B43" s="54" t="s">
         <v>35</v>
       </c>
@@ -4127,7 +4127,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="44" spans="2:5" s="10" customFormat="1" ht="50.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="2:5" s="10" customFormat="1" ht="50.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B44" s="54" t="s">
         <v>37</v>
       </c>
@@ -4136,7 +4136,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="45" spans="2:5" s="10" customFormat="1" ht="30.7" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="2:5" s="10" customFormat="1" ht="30.9" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B45" s="54" t="s">
         <v>39</v>
       </c>
@@ -4145,7 +4145,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="46" spans="2:5" s="10" customFormat="1" ht="50.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="2:5" s="10" customFormat="1" ht="50.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B46" s="51" t="s">
         <v>40</v>
       </c>
@@ -4154,7 +4154,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="47" spans="2:5" s="10" customFormat="1" ht="45.7" thickTop="1" x14ac:dyDescent="0.5">
+    <row r="47" spans="2:5" s="10" customFormat="1" ht="45.9" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B47" s="55" t="s">
         <v>42</v>
       </c>
@@ -4162,17 +4162,17 @@
         <v>380</v>
       </c>
     </row>
-    <row r="48" spans="2:5" s="33" customFormat="1" x14ac:dyDescent="0.5"/>
-    <row r="49" spans="2:5" s="40" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="48" spans="2:5" s="33" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="49" spans="2:5" s="40" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B49" s="38"/>
       <c r="C49" s="38"/>
       <c r="D49" s="38"/>
       <c r="E49" s="39"/>
     </row>
-    <row r="50" spans="2:5" s="33" customFormat="1" ht="15.35" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="2:5" s="33" customFormat="1" ht="15.45" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B50" s="51"/>
     </row>
-    <row r="51" spans="2:5" s="10" customFormat="1" ht="50.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="2:5" s="10" customFormat="1" ht="50.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B51" s="51" t="s">
         <v>43</v>
       </c>
@@ -4181,7 +4181,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="52" spans="2:5" s="10" customFormat="1" ht="15.7" thickTop="1" x14ac:dyDescent="0.5">
+    <row r="52" spans="2:5" s="10" customFormat="1" ht="15.9" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B52" s="51" t="s">
         <v>45</v>
       </c>
@@ -4189,7 +4189,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="53" spans="2:5" s="10" customFormat="1" ht="30.35" x14ac:dyDescent="0.5">
+    <row r="53" spans="2:5" s="10" customFormat="1" ht="30.45" x14ac:dyDescent="0.4">
       <c r="B53" s="51" t="s">
         <v>46</v>
       </c>
@@ -4197,19 +4197,19 @@
         <v>382</v>
       </c>
     </row>
-    <row r="54" spans="2:5" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.5">
+    <row r="54" spans="2:5" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="B54" s="52"/>
       <c r="C54" s="52"/>
       <c r="D54" s="52"/>
     </row>
-    <row r="55" spans="2:5" s="40" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="55" spans="2:5" s="40" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B55" s="38"/>
       <c r="C55" s="38"/>
       <c r="D55" s="38"/>
       <c r="E55" s="39"/>
     </row>
-    <row r="56" spans="2:5" s="33" customFormat="1" x14ac:dyDescent="0.5"/>
-    <row r="57" spans="2:5" s="10" customFormat="1" ht="45.35" x14ac:dyDescent="0.5">
+    <row r="56" spans="2:5" s="33" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="57" spans="2:5" s="10" customFormat="1" ht="45.45" x14ac:dyDescent="0.4">
       <c r="B57" s="54" t="s">
         <v>47</v>
       </c>
@@ -4218,7 +4218,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="58" spans="2:5" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.5">
+    <row r="58" spans="2:5" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="B58" s="56" t="str">
         <f>IF(
   LEN(_carb_only!B52) &lt;= 60,
@@ -4236,7 +4236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="2:5" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.5">
+    <row r="59" spans="2:5" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="B59" s="56" t="str">
         <f>IF(
   LEN(_carb_only!B53) &lt;= 60,
@@ -4254,7 +4254,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="2:5" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.5">
+    <row r="60" spans="2:5" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="B60" s="56" t="str">
         <f>IF(
   LEN(_carb_only!B54) &lt;= 60,
@@ -4272,7 +4272,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="61" spans="2:5" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.5">
+    <row r="61" spans="2:5" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="B61" s="56" t="str">
         <f>IF(
   LEN(_carb_only!B55) &lt;= 60,
@@ -4290,7 +4290,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="62" spans="2:5" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.5">
+    <row r="62" spans="2:5" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="B62" s="56" t="str">
         <f>IF(
   LEN(_carb_only!B56) &lt;= 60,
@@ -4308,7 +4308,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="63" spans="2:5" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.5">
+    <row r="63" spans="2:5" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="B63" s="56" t="str">
         <f>IF(
   LEN(_carb_only!B57) &lt;= 60,
@@ -4326,7 +4326,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="64" spans="2:5" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.5">
+    <row r="64" spans="2:5" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="B64" s="56" t="str">
         <f>IF(
   LEN(_carb_only!B58) &lt;= 60,
@@ -4344,7 +4344,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="65" spans="2:7" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.5">
+    <row r="65" spans="2:7" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="B65" s="56" t="str">
         <f>IF(
   LEN(_carb_only!B59) &lt;= 60,
@@ -4362,7 +4362,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="66" spans="2:7" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.5">
+    <row r="66" spans="2:7" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="B66" s="56" t="str">
         <f>IF(
   LEN(_carb_only!B60) &lt;= 60,
@@ -4380,7 +4380,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="67" spans="2:7" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.5">
+    <row r="67" spans="2:7" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="B67" s="56" t="str">
         <f>IF(
   LEN(_carb_only!B61) &lt;= 60,
@@ -4398,7 +4398,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="68" spans="2:7" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.5">
+    <row r="68" spans="2:7" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="B68" s="56" t="str">
         <f>IF(
   LEN(_carb_only!B62) &lt;= 60,
@@ -4416,7 +4416,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="69" spans="2:7" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.5">
+    <row r="69" spans="2:7" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="B69" s="56" t="str">
         <f>IF(
   LEN(_carb_only!B63) &lt;= 60,
@@ -4434,7 +4434,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="70" spans="2:7" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.5">
+    <row r="70" spans="2:7" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="B70" s="56" t="str">
         <f>IF(
   LEN(_carb_only!B64) &lt;= 60,
@@ -4452,7 +4452,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="71" spans="2:7" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.5">
+    <row r="71" spans="2:7" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="B71" s="56" t="str">
         <f>IF(
   LEN(_carb_only!B65) &lt;= 60,
@@ -4470,7 +4470,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="72" spans="2:7" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.5">
+    <row r="72" spans="2:7" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="B72" s="56" t="str">
         <f>IF(
   LEN(_carb_only!B66) &lt;= 60,
@@ -4488,7 +4488,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="73" spans="2:7" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.5">
+    <row r="73" spans="2:7" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="B73" s="56" t="str">
         <f>IF(
   LEN(_carb_only!B67) &lt;= 60,
@@ -4506,7 +4506,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="74" spans="2:7" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.5">
+    <row r="74" spans="2:7" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="B74" s="56" t="str">
         <f>IF(
   LEN(_carb_only!B68) &lt;= 60,
@@ -4524,7 +4524,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="75" spans="2:7" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.5">
+    <row r="75" spans="2:7" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="B75" s="56" t="str">
         <f>IF(
   LEN(_carb_only!B69) &lt;= 60,
@@ -4542,7 +4542,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="76" spans="2:7" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.5">
+    <row r="76" spans="2:7" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="B76" s="56" t="str">
         <f>IF(
   LEN(_carb_only!B70) &lt;= 60,
@@ -4560,7 +4560,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="77" spans="2:7" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.5">
+    <row r="77" spans="2:7" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="B77" s="56" t="str">
         <f>IF(
   LEN(_carb_only!B71) &lt;= 60,
@@ -4578,7 +4578,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="78" spans="2:7" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.5">
+    <row r="78" spans="2:7" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="B78" s="56" t="str">
         <f>IF(
   LEN(_carb_only!B72) &lt;= 60,
@@ -4596,7 +4596,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="79" spans="2:7" s="10" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="79" spans="2:7" s="10" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="54" t="s">
         <v>49</v>
       </c>
@@ -4605,7 +4605,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="80" spans="2:7" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.5">
+    <row r="80" spans="2:7" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.4">
       <c r="B80" s="56" t="str">
         <f>IF(
   LEN(_carb_only!B76) &lt;= 60,
@@ -4625,7 +4625,7 @@
       </c>
       <c r="G80"/>
     </row>
-    <row r="81" spans="2:7" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.5">
+    <row r="81" spans="2:7" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.4">
       <c r="B81" s="56" t="str">
         <f>IF(
   LEN(_carb_only!B77) &lt;= 60,
@@ -4645,7 +4645,7 @@
       </c>
       <c r="G81"/>
     </row>
-    <row r="82" spans="2:7" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.5">
+    <row r="82" spans="2:7" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.4">
       <c r="B82" s="56" t="str">
         <f>IF(
   LEN(_carb_only!B78) &lt;= 60,
@@ -4665,7 +4665,7 @@
       </c>
       <c r="G82"/>
     </row>
-    <row r="83" spans="2:7" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.5">
+    <row r="83" spans="2:7" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="B83" s="56" t="str">
         <f>IF(
   LEN(_carb_only!B79) &lt;= 60,
@@ -4684,7 +4684,7 @@
       </c>
       <c r="G83"/>
     </row>
-    <row r="84" spans="2:7" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.5">
+    <row r="84" spans="2:7" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="B84" s="56" t="str">
         <f>IF(
   LEN(_carb_only!B80) &lt;= 60,
@@ -4703,7 +4703,7 @@
       </c>
       <c r="G84"/>
     </row>
-    <row r="85" spans="2:7" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.5">
+    <row r="85" spans="2:7" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="B85" s="56" t="str">
         <f>IF(
   LEN(_carb_only!B81) &lt;= 60,
@@ -4722,7 +4722,7 @@
       </c>
       <c r="G85"/>
     </row>
-    <row r="86" spans="2:7" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.5">
+    <row r="86" spans="2:7" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="B86" s="56" t="str">
         <f>IF(
   LEN(_carb_only!B82) &lt;= 60,
@@ -4741,7 +4741,7 @@
       </c>
       <c r="G86"/>
     </row>
-    <row r="87" spans="2:7" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.5">
+    <row r="87" spans="2:7" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="B87" s="56" t="str">
         <f>IF(
   LEN(_carb_only!B83) &lt;= 60,
@@ -4760,7 +4760,7 @@
       </c>
       <c r="G87"/>
     </row>
-    <row r="88" spans="2:7" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.5">
+    <row r="88" spans="2:7" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.4">
       <c r="B88" s="56" t="str">
         <f>IF(
   LEN(_carb_only!B84) &lt;= 60,
@@ -4780,7 +4780,7 @@
       </c>
       <c r="G88"/>
     </row>
-    <row r="89" spans="2:7" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.5">
+    <row r="89" spans="2:7" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="B89" s="56" t="str">
         <f>IF(
   LEN(_carb_only!B85) &lt;= 60,
@@ -4799,7 +4799,7 @@
       </c>
       <c r="G89"/>
     </row>
-    <row r="90" spans="2:7" s="10" customFormat="1" ht="15.35" x14ac:dyDescent="0.5">
+    <row r="90" spans="2:7" s="10" customFormat="1" ht="15.45" x14ac:dyDescent="0.4">
       <c r="B90" s="54" t="s">
         <v>50</v>
       </c>
@@ -4807,7 +4807,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="91" spans="2:7" s="10" customFormat="1" ht="45.35" x14ac:dyDescent="0.5">
+    <row r="91" spans="2:7" s="10" customFormat="1" ht="45.45" x14ac:dyDescent="0.4">
       <c r="B91" s="54" t="s">
         <v>51</v>
       </c>
@@ -4815,7 +4815,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="92" spans="2:7" s="10" customFormat="1" ht="45.35" x14ac:dyDescent="0.5">
+    <row r="92" spans="2:7" s="10" customFormat="1" ht="45.45" x14ac:dyDescent="0.4">
       <c r="B92" s="54" t="s">
         <v>52</v>
       </c>
@@ -4823,7 +4823,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="93" spans="2:7" s="10" customFormat="1" ht="30.35" x14ac:dyDescent="0.5">
+    <row r="93" spans="2:7" s="10" customFormat="1" ht="30.45" x14ac:dyDescent="0.4">
       <c r="B93" s="54" t="s">
         <v>53</v>
       </c>
@@ -4831,13 +4831,13 @@
         <v>338</v>
       </c>
     </row>
-    <row r="94" spans="2:7" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.5">
+    <row r="94" spans="2:7" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="B94" s="52"/>
       <c r="D94" s="58"/>
     </row>
-    <row r="95" spans="2:7" s="17" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="96" spans="2:7" s="17" customFormat="1" x14ac:dyDescent="0.5"/>
-    <row r="97" spans="2:4" s="10" customFormat="1" ht="30.35" x14ac:dyDescent="0.5">
+    <row r="95" spans="2:7" s="17" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="96" spans="2:7" s="17" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="97" spans="2:4" s="10" customFormat="1" ht="30.45" x14ac:dyDescent="0.4">
       <c r="B97" s="54" t="s">
         <v>54</v>
       </c>
@@ -4893,19 +4893,19 @@
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="3.703125" customWidth="1"/>
-    <col min="2" max="3" width="10.703125" customWidth="1"/>
-    <col min="4" max="4" width="80.703125" customWidth="1"/>
+    <col min="1" max="1" width="3.69140625" customWidth="1"/>
+    <col min="2" max="3" width="10.69140625" customWidth="1"/>
+    <col min="4" max="4" width="80.69140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" s="5" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:4" s="5" customFormat="1" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="5" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>56</v>
       </c>
@@ -4913,7 +4913,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>56</v>
       </c>
@@ -4921,7 +4921,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>56</v>
       </c>
@@ -4929,17 +4929,17 @@
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B9" s="6" t="s">
         <v>60</v>
       </c>
       <c r="C9" s="1"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B10" s="6"/>
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B11" t="s">
         <v>61</v>
       </c>
@@ -4950,7 +4950,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B12" s="13" t="s">
         <v>64</v>
       </c>
@@ -4961,7 +4961,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B13" s="13" t="s">
         <v>66</v>
       </c>
@@ -4972,7 +4972,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B14" s="13" t="s">
         <v>68</v>
       </c>
@@ -4981,7 +4981,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B15" s="13" t="s">
         <v>70</v>
       </c>
@@ -4992,7 +4992,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B16" s="13" t="s">
         <v>72</v>
       </c>
@@ -5003,52 +5003,52 @@
         <v>73</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B17" s="13"/>
       <c r="C17" s="13"/>
       <c r="D17" s="13"/>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B18" s="13"/>
       <c r="C18" s="13"/>
       <c r="D18" s="13"/>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B19" s="13"/>
       <c r="C19" s="13"/>
       <c r="D19" s="13"/>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B20" s="13"/>
       <c r="C20" s="13"/>
       <c r="D20" s="13"/>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B21" s="13"/>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B22" s="13"/>
       <c r="C22" s="13"/>
       <c r="D22" s="13"/>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B23" s="13"/>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B24" s="13"/>
       <c r="C24" s="13"/>
       <c r="D24" s="13"/>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B25" s="13"/>
       <c r="C25" s="13"/>
       <c r="D25" s="13"/>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B26" s="13"/>
       <c r="C26" s="13"/>
       <c r="D26" s="13"/>
@@ -5070,31 +5070,31 @@
   <sheetViews>
     <sheetView topLeftCell="A30" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="3.703125" customWidth="1"/>
+    <col min="1" max="1" width="3.69140625" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="45.703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.29296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5859375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.703125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="45.703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="45.69140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.3046875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.61328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.69140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="45.69140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" s="5" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:11" s="5" customFormat="1" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="5" t="s">
         <v>74</v>
       </c>
       <c r="F2" s="16"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
       <c r="G3" s="2"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>56</v>
       </c>
@@ -5102,15 +5102,15 @@
         <v>75</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
       <c r="B7" s="6" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
       <c r="B8" s="6"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
       <c r="B9" t="s">
         <v>77</v>
       </c>
@@ -5118,7 +5118,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:11" s="10" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="B10" s="13" t="s">
         <v>79</v>
       </c>
@@ -5129,7 +5129,7 @@
       <c r="F10" s="13"/>
       <c r="G10" s="13"/>
     </row>
-    <row r="11" spans="1:11" s="10" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:11" s="10" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="B11" s="13" t="s">
         <v>81</v>
       </c>
@@ -5140,7 +5140,7 @@
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
     </row>
-    <row r="12" spans="1:11" s="10" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:11" s="10" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="B12" s="13" t="s">
         <v>83</v>
       </c>
@@ -5151,7 +5151,7 @@
       <c r="F12" s="13"/>
       <c r="G12" s="13"/>
     </row>
-    <row r="13" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B13" s="13" t="s">
         <v>85</v>
       </c>
@@ -5162,15 +5162,15 @@
       <c r="F13" s="13"/>
       <c r="G13" s="13"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
       <c r="B14" s="10"/>
       <c r="C14" s="13"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
       <c r="B15" s="10"/>
       <c r="C15" s="13"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
       <c r="B16" s="6" t="s">
         <v>87</v>
       </c>
@@ -5180,14 +5180,14 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.5">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.4">
       <c r="G17" s="2"/>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.5">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B18" t="s">
         <v>88</v>
       </c>
@@ -5211,7 +5211,7 @@
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
     </row>
-    <row r="19" spans="2:11" s="10" customFormat="1" ht="43" x14ac:dyDescent="0.5">
+    <row r="19" spans="2:11" s="10" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
       <c r="B19" s="10">
         <v>1</v>
       </c>
@@ -5231,7 +5231,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="20" spans="2:11" s="10" customFormat="1" ht="86" x14ac:dyDescent="0.5">
+    <row r="20" spans="2:11" s="10" customFormat="1" ht="102" x14ac:dyDescent="0.4">
       <c r="B20" s="10">
         <v>2</v>
       </c>
@@ -5251,7 +5251,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="21" spans="2:11" s="10" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="21" spans="2:11" s="10" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="B21" s="10">
         <v>3</v>
       </c>
@@ -5271,7 +5271,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="22" spans="2:11" s="10" customFormat="1" ht="271.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="22" spans="2:11" s="10" customFormat="1" ht="271.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="10">
         <v>4</v>
       </c>
@@ -5291,7 +5291,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="23" spans="2:11" s="10" customFormat="1" ht="157.69999999999999" x14ac:dyDescent="0.5">
+    <row r="23" spans="2:11" s="10" customFormat="1" ht="174.9" x14ac:dyDescent="0.4">
       <c r="B23" s="10">
         <v>5</v>
       </c>
@@ -5309,7 +5309,7 @@
       </c>
       <c r="G23" s="13"/>
     </row>
-    <row r="24" spans="2:11" s="10" customFormat="1" ht="198.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="24" spans="2:11" s="10" customFormat="1" ht="198.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="10">
         <v>6</v>
       </c>
@@ -5327,7 +5327,7 @@
       </c>
       <c r="G24" s="13"/>
     </row>
-    <row r="25" spans="2:11" s="10" customFormat="1" ht="114.7" x14ac:dyDescent="0.5">
+    <row r="25" spans="2:11" s="10" customFormat="1" ht="116.6" x14ac:dyDescent="0.4">
       <c r="B25" s="10">
         <v>7</v>
       </c>
@@ -5347,7 +5347,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="26" spans="2:11" s="10" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="26" spans="2:11" s="10" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="10">
         <v>8</v>
       </c>
@@ -5365,7 +5365,7 @@
       </c>
       <c r="G26" s="13"/>
     </row>
-    <row r="27" spans="2:11" s="10" customFormat="1" ht="301" x14ac:dyDescent="0.5">
+    <row r="27" spans="2:11" s="10" customFormat="1" ht="306" x14ac:dyDescent="0.4">
       <c r="B27" s="10">
         <v>9</v>
       </c>
@@ -5385,7 +5385,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="28" spans="2:11" s="10" customFormat="1" ht="57.35" x14ac:dyDescent="0.5">
+    <row r="28" spans="2:11" s="10" customFormat="1" ht="58.3" x14ac:dyDescent="0.4">
       <c r="B28" s="10">
         <v>10</v>
       </c>
@@ -5405,7 +5405,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="29" spans="2:11" s="10" customFormat="1" ht="100.35" x14ac:dyDescent="0.5">
+    <row r="29" spans="2:11" s="10" customFormat="1" ht="131.15" x14ac:dyDescent="0.4">
       <c r="B29" s="10">
         <v>11</v>
       </c>
@@ -5420,7 +5420,7 @@
       </c>
       <c r="G29" s="13"/>
     </row>
-    <row r="30" spans="2:11" s="10" customFormat="1" ht="86" x14ac:dyDescent="0.5">
+    <row r="30" spans="2:11" s="10" customFormat="1" ht="87.45" x14ac:dyDescent="0.4">
       <c r="B30" s="10">
         <v>12</v>
       </c>
@@ -5437,7 +5437,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="31" spans="2:11" s="10" customFormat="1" ht="71.7" x14ac:dyDescent="0.5">
+    <row r="31" spans="2:11" s="10" customFormat="1" ht="72.900000000000006" x14ac:dyDescent="0.4">
       <c r="B31" s="10">
         <v>13</v>
       </c>
@@ -5455,7 +5455,7 @@
       </c>
       <c r="G31" s="13"/>
     </row>
-    <row r="32" spans="2:11" s="10" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="32" spans="2:11" s="10" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="B32" s="10">
         <v>14</v>
       </c>
@@ -5473,7 +5473,7 @@
       </c>
       <c r="G32" s="13"/>
     </row>
-    <row r="33" spans="2:7" s="10" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="33" spans="2:7" s="10" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="B33" s="10">
         <v>15</v>
       </c>
@@ -5491,7 +5491,7 @@
       </c>
       <c r="G33" s="13"/>
     </row>
-    <row r="34" spans="2:7" s="10" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="34" spans="2:7" s="10" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="B34" s="10">
         <v>16</v>
       </c>
@@ -5509,7 +5509,7 @@
       </c>
       <c r="G34" s="13"/>
     </row>
-    <row r="35" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="35" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B35" s="10">
         <v>17</v>
       </c>
@@ -5518,7 +5518,7 @@
       <c r="F35" s="13"/>
       <c r="G35" s="13"/>
     </row>
-    <row r="36" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="36" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B36" s="10">
         <v>18</v>
       </c>
@@ -5527,7 +5527,7 @@
       <c r="F36" s="13"/>
       <c r="G36" s="13"/>
     </row>
-    <row r="37" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="37" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B37" s="10">
         <v>19</v>
       </c>
@@ -5536,7 +5536,7 @@
       <c r="F37" s="13"/>
       <c r="G37" s="13"/>
     </row>
-    <row r="38" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="38" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B38" s="10">
         <v>20</v>
       </c>
@@ -5545,7 +5545,7 @@
       <c r="F38" s="13"/>
       <c r="G38" s="13"/>
     </row>
-    <row r="39" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="39" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B39" s="10">
         <v>21</v>
       </c>
@@ -5554,7 +5554,7 @@
       <c r="F39" s="13"/>
       <c r="G39" s="13"/>
     </row>
-    <row r="40" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="40" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B40" s="10">
         <v>22</v>
       </c>
@@ -5563,7 +5563,7 @@
       <c r="F40" s="13"/>
       <c r="G40" s="13"/>
     </row>
-    <row r="41" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="41" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B41" s="10">
         <v>23</v>
       </c>
@@ -5572,7 +5572,7 @@
       <c r="F41" s="13"/>
       <c r="G41" s="13"/>
     </row>
-    <row r="42" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="42" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B42" s="10">
         <v>24</v>
       </c>
@@ -5581,7 +5581,7 @@
       <c r="F42" s="13"/>
       <c r="G42" s="13"/>
     </row>
-    <row r="43" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="43" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B43" s="10">
         <v>25</v>
       </c>
@@ -5590,7 +5590,7 @@
       <c r="F43" s="13"/>
       <c r="G43" s="13"/>
     </row>
-    <row r="44" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="44" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B44" s="10">
         <v>26</v>
       </c>
@@ -5599,7 +5599,7 @@
       <c r="F44" s="13"/>
       <c r="G44" s="13"/>
     </row>
-    <row r="45" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="45" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B45" s="10">
         <v>27</v>
       </c>
@@ -5608,7 +5608,7 @@
       <c r="F45" s="13"/>
       <c r="G45" s="13"/>
     </row>
-    <row r="46" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="46" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B46" s="10">
         <v>28</v>
       </c>
@@ -5617,7 +5617,7 @@
       <c r="F46" s="13"/>
       <c r="G46" s="13"/>
     </row>
-    <row r="47" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="47" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B47" s="10">
         <v>29</v>
       </c>
@@ -5626,7 +5626,7 @@
       <c r="F47" s="13"/>
       <c r="G47" s="13"/>
     </row>
-    <row r="48" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="48" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B48" s="10">
         <v>30</v>
       </c>
@@ -5635,7 +5635,7 @@
       <c r="F48" s="13"/>
       <c r="G48" s="13"/>
     </row>
-    <row r="49" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="49" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B49" s="10">
         <v>31</v>
       </c>
@@ -5644,7 +5644,7 @@
       <c r="F49" s="13"/>
       <c r="G49" s="13"/>
     </row>
-    <row r="50" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="50" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B50" s="10">
         <v>32</v>
       </c>
@@ -5653,7 +5653,7 @@
       <c r="F50" s="13"/>
       <c r="G50" s="13"/>
     </row>
-    <row r="51" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="51" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B51" s="10">
         <v>33</v>
       </c>
@@ -5662,7 +5662,7 @@
       <c r="F51" s="13"/>
       <c r="G51" s="13"/>
     </row>
-    <row r="52" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="52" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B52" s="10">
         <v>34</v>
       </c>
@@ -5671,7 +5671,7 @@
       <c r="F52" s="13"/>
       <c r="G52" s="13"/>
     </row>
-    <row r="53" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="53" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B53" s="10">
         <v>35</v>
       </c>
@@ -5680,7 +5680,7 @@
       <c r="F53" s="13"/>
       <c r="G53" s="13"/>
     </row>
-    <row r="54" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="54" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B54" s="10">
         <v>36</v>
       </c>
@@ -5689,7 +5689,7 @@
       <c r="F54" s="13"/>
       <c r="G54" s="13"/>
     </row>
-    <row r="55" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="55" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B55" s="10">
         <v>37</v>
       </c>
@@ -5698,7 +5698,7 @@
       <c r="F55" s="13"/>
       <c r="G55" s="13"/>
     </row>
-    <row r="56" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="56" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B56" s="10">
         <v>38</v>
       </c>
@@ -5707,7 +5707,7 @@
       <c r="F56" s="13"/>
       <c r="G56" s="13"/>
     </row>
-    <row r="57" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="57" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B57" s="10">
         <v>39</v>
       </c>
@@ -5716,7 +5716,7 @@
       <c r="F57" s="13"/>
       <c r="G57" s="13"/>
     </row>
-    <row r="58" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="58" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B58" s="10">
         <v>40</v>
       </c>
@@ -5725,7 +5725,7 @@
       <c r="F58" s="13"/>
       <c r="G58" s="13"/>
     </row>
-    <row r="59" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="59" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B59" s="10">
         <v>41</v>
       </c>
@@ -5734,7 +5734,7 @@
       <c r="F59" s="13"/>
       <c r="G59" s="13"/>
     </row>
-    <row r="60" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="60" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B60" s="10">
         <v>42</v>
       </c>
@@ -5743,7 +5743,7 @@
       <c r="F60" s="13"/>
       <c r="G60" s="13"/>
     </row>
-    <row r="61" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="61" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B61" s="10">
         <v>43</v>
       </c>
@@ -5752,7 +5752,7 @@
       <c r="F61" s="13"/>
       <c r="G61" s="13"/>
     </row>
-    <row r="62" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="62" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B62" s="10">
         <v>44</v>
       </c>
@@ -5761,7 +5761,7 @@
       <c r="F62" s="13"/>
       <c r="G62" s="13"/>
     </row>
-    <row r="63" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="63" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B63" s="10">
         <v>45</v>
       </c>
@@ -5770,7 +5770,7 @@
       <c r="F63" s="13"/>
       <c r="G63" s="13"/>
     </row>
-    <row r="64" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="64" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B64" s="10">
         <v>46</v>
       </c>
@@ -5779,7 +5779,7 @@
       <c r="F64" s="13"/>
       <c r="G64" s="13"/>
     </row>
-    <row r="65" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="65" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B65" s="10">
         <v>47</v>
       </c>
@@ -5788,7 +5788,7 @@
       <c r="F65" s="13"/>
       <c r="G65" s="13"/>
     </row>
-    <row r="66" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="66" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B66" s="10">
         <v>48</v>
       </c>
@@ -5797,7 +5797,7 @@
       <c r="F66" s="13"/>
       <c r="G66" s="13"/>
     </row>
-    <row r="67" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="67" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B67" s="10">
         <v>49</v>
       </c>
@@ -5806,7 +5806,7 @@
       <c r="F67" s="13"/>
       <c r="G67" s="13"/>
     </row>
-    <row r="68" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="68" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B68" s="10">
         <v>50</v>
       </c>
@@ -5815,7 +5815,7 @@
       <c r="F68" s="13"/>
       <c r="G68" s="13"/>
     </row>
-    <row r="69" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="69" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B69" s="10">
         <v>51</v>
       </c>
@@ -5824,7 +5824,7 @@
       <c r="F69" s="13"/>
       <c r="G69" s="13"/>
     </row>
-    <row r="70" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="70" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B70" s="10">
         <v>52</v>
       </c>
@@ -5833,7 +5833,7 @@
       <c r="F70" s="13"/>
       <c r="G70" s="13"/>
     </row>
-    <row r="71" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="71" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B71" s="10">
         <v>53</v>
       </c>
@@ -5842,7 +5842,7 @@
       <c r="F71" s="13"/>
       <c r="G71" s="13"/>
     </row>
-    <row r="72" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="72" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B72" s="10">
         <v>54</v>
       </c>
@@ -5851,7 +5851,7 @@
       <c r="F72" s="13"/>
       <c r="G72" s="13"/>
     </row>
-    <row r="73" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="73" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B73" s="10">
         <v>55</v>
       </c>
@@ -5860,7 +5860,7 @@
       <c r="F73" s="13"/>
       <c r="G73" s="13"/>
     </row>
-    <row r="74" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="74" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B74" s="10">
         <v>56</v>
       </c>
@@ -5869,7 +5869,7 @@
       <c r="F74" s="13"/>
       <c r="G74" s="13"/>
     </row>
-    <row r="75" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="75" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B75" s="10">
         <v>57</v>
       </c>
@@ -5878,7 +5878,7 @@
       <c r="F75" s="13"/>
       <c r="G75" s="13"/>
     </row>
-    <row r="76" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="76" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B76" s="10">
         <v>58</v>
       </c>
@@ -5887,7 +5887,7 @@
       <c r="F76" s="13"/>
       <c r="G76" s="13"/>
     </row>
-    <row r="77" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="77" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B77" s="10">
         <v>59</v>
       </c>
@@ -5896,7 +5896,7 @@
       <c r="F77" s="13"/>
       <c r="G77" s="13"/>
     </row>
-    <row r="78" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="78" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B78" s="10">
         <v>60</v>
       </c>
@@ -5905,7 +5905,7 @@
       <c r="F78" s="13"/>
       <c r="G78" s="13"/>
     </row>
-    <row r="79" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="79" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B79" s="10">
         <v>61</v>
       </c>
@@ -5914,7 +5914,7 @@
       <c r="F79" s="13"/>
       <c r="G79" s="13"/>
     </row>
-    <row r="80" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="80" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B80" s="10">
         <v>62</v>
       </c>
@@ -5923,7 +5923,7 @@
       <c r="F80" s="13"/>
       <c r="G80" s="13"/>
     </row>
-    <row r="81" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="81" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B81" s="10">
         <v>63</v>
       </c>
@@ -5932,7 +5932,7 @@
       <c r="F81" s="13"/>
       <c r="G81" s="13"/>
     </row>
-    <row r="82" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="82" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B82" s="10">
         <v>64</v>
       </c>
@@ -5941,7 +5941,7 @@
       <c r="F82" s="13"/>
       <c r="G82" s="13"/>
     </row>
-    <row r="83" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="83" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B83" s="10">
         <v>65</v>
       </c>
@@ -5950,7 +5950,7 @@
       <c r="F83" s="13"/>
       <c r="G83" s="13"/>
     </row>
-    <row r="84" spans="2:7" s="17" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="84" spans="2:7" s="17" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B84" s="10">
         <v>66</v>
       </c>
@@ -5960,7 +5960,7 @@
       <c r="F84" s="13"/>
       <c r="G84" s="23"/>
     </row>
-    <row r="85" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="85" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B85" s="10">
         <v>67</v>
       </c>
@@ -5969,7 +5969,7 @@
       <c r="F85" s="13"/>
       <c r="G85" s="13"/>
     </row>
-    <row r="86" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="86" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B86" s="10">
         <v>68</v>
       </c>
@@ -5978,7 +5978,7 @@
       <c r="F86" s="13"/>
       <c r="G86" s="13"/>
     </row>
-    <row r="87" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="87" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B87" s="10">
         <v>69</v>
       </c>
@@ -5987,7 +5987,7 @@
       <c r="F87" s="13"/>
       <c r="G87" s="13"/>
     </row>
-    <row r="88" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="88" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B88" s="10">
         <v>70</v>
       </c>
@@ -5996,7 +5996,7 @@
       <c r="F88" s="13"/>
       <c r="G88" s="19"/>
     </row>
-    <row r="89" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="89" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B89" s="10">
         <v>71</v>
       </c>
@@ -6005,7 +6005,7 @@
       <c r="F89" s="13"/>
       <c r="G89" s="19"/>
     </row>
-    <row r="90" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="90" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B90" s="10">
         <v>72</v>
       </c>
@@ -6014,7 +6014,7 @@
       <c r="F90" s="13"/>
       <c r="G90" s="13"/>
     </row>
-    <row r="91" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="91" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B91" s="10">
         <v>73</v>
       </c>
@@ -6023,7 +6023,7 @@
       <c r="F91" s="13"/>
       <c r="G91" s="19"/>
     </row>
-    <row r="92" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="92" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B92" s="10">
         <v>74</v>
       </c>
@@ -6032,7 +6032,7 @@
       <c r="F92" s="13"/>
       <c r="G92" s="13"/>
     </row>
-    <row r="93" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="93" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B93" s="10">
         <v>75</v>
       </c>
@@ -6041,7 +6041,7 @@
       <c r="F93" s="13"/>
       <c r="G93" s="13"/>
     </row>
-    <row r="94" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="94" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B94" s="10">
         <v>76</v>
       </c>
@@ -6050,7 +6050,7 @@
       <c r="F94" s="13"/>
       <c r="G94" s="13"/>
     </row>
-    <row r="95" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="95" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B95" s="10">
         <v>77</v>
       </c>
@@ -6059,7 +6059,7 @@
       <c r="F95" s="13"/>
       <c r="G95" s="13"/>
     </row>
-    <row r="96" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="96" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B96" s="10">
         <v>78</v>
       </c>
@@ -6068,7 +6068,7 @@
       <c r="F96" s="13"/>
       <c r="G96" s="13"/>
     </row>
-    <row r="97" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="97" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B97" s="10">
         <v>79</v>
       </c>
@@ -6077,7 +6077,7 @@
       <c r="F97" s="13"/>
       <c r="G97" s="13"/>
     </row>
-    <row r="98" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="98" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B98" s="10">
         <v>80</v>
       </c>
@@ -6086,7 +6086,7 @@
       <c r="F98" s="13"/>
       <c r="G98" s="13"/>
     </row>
-    <row r="99" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="99" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B99" s="10">
         <v>81</v>
       </c>
@@ -6095,7 +6095,7 @@
       <c r="F99" s="13"/>
       <c r="G99" s="13"/>
     </row>
-    <row r="100" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="100" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B100" s="10">
         <v>82</v>
       </c>
@@ -6104,7 +6104,7 @@
       <c r="F100" s="13"/>
       <c r="G100" s="13"/>
     </row>
-    <row r="101" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="101" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B101" s="10">
         <v>83</v>
       </c>
@@ -6113,7 +6113,7 @@
       <c r="F101" s="13"/>
       <c r="G101" s="13"/>
     </row>
-    <row r="102" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="102" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B102" s="10">
         <v>84</v>
       </c>
@@ -6122,7 +6122,7 @@
       <c r="F102" s="13"/>
       <c r="G102" s="13"/>
     </row>
-    <row r="103" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="103" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B103" s="10">
         <v>85</v>
       </c>
@@ -6131,7 +6131,7 @@
       <c r="F103" s="13"/>
       <c r="G103" s="13"/>
     </row>
-    <row r="104" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="104" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B104" s="10">
         <v>86</v>
       </c>
@@ -6140,7 +6140,7 @@
       <c r="F104" s="13"/>
       <c r="G104" s="13"/>
     </row>
-    <row r="105" spans="2:7" s="17" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="105" spans="2:7" s="17" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10">
         <v>87</v>
       </c>
@@ -6150,7 +6150,7 @@
       <c r="F105" s="13"/>
       <c r="G105" s="13"/>
     </row>
-    <row r="106" spans="2:7" s="17" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="106" spans="2:7" s="17" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B106" s="10">
         <v>88</v>
       </c>
@@ -6160,7 +6160,7 @@
       <c r="F106" s="13"/>
       <c r="G106" s="13"/>
     </row>
-    <row r="107" spans="2:7" s="17" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="107" spans="2:7" s="17" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B107" s="10">
         <v>89</v>
       </c>
@@ -6170,7 +6170,7 @@
       <c r="F107" s="13"/>
       <c r="G107" s="13"/>
     </row>
-    <row r="108" spans="2:7" s="17" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="108" spans="2:7" s="17" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B108" s="10">
         <v>90</v>
       </c>
@@ -6180,7 +6180,7 @@
       <c r="F108" s="13"/>
       <c r="G108" s="13"/>
     </row>
-    <row r="109" spans="2:7" s="17" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="109" spans="2:7" s="17" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B109" s="10">
         <v>91</v>
       </c>
@@ -6190,7 +6190,7 @@
       <c r="F109" s="13"/>
       <c r="G109" s="13"/>
     </row>
-    <row r="110" spans="2:7" s="17" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="110" spans="2:7" s="17" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B110" s="10">
         <v>92</v>
       </c>
@@ -6200,7 +6200,7 @@
       <c r="F110" s="13"/>
       <c r="G110" s="13"/>
     </row>
-    <row r="111" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="111" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B111" s="10">
         <v>93</v>
       </c>
@@ -6209,7 +6209,7 @@
       <c r="F111" s="13"/>
       <c r="G111" s="13"/>
     </row>
-    <row r="112" spans="2:7" s="17" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="112" spans="2:7" s="17" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B112" s="10">
         <v>94</v>
       </c>
@@ -6219,7 +6219,7 @@
       <c r="F112" s="13"/>
       <c r="G112" s="13"/>
     </row>
-    <row r="113" spans="2:7" s="17" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="113" spans="2:7" s="17" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B113" s="10">
         <v>95</v>
       </c>
@@ -6229,7 +6229,7 @@
       <c r="F113" s="13"/>
       <c r="G113" s="13"/>
     </row>
-    <row r="114" spans="2:7" s="17" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="114" spans="2:7" s="17" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B114" s="10">
         <v>96</v>
       </c>
@@ -6239,7 +6239,7 @@
       <c r="F114" s="13"/>
       <c r="G114" s="13"/>
     </row>
-    <row r="115" spans="2:7" s="17" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="115" spans="2:7" s="17" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B115" s="10">
         <v>97</v>
       </c>
@@ -6249,7 +6249,7 @@
       <c r="F115" s="13"/>
       <c r="G115" s="13"/>
     </row>
-    <row r="116" spans="2:7" s="17" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="116" spans="2:7" s="17" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B116" s="10">
         <v>98</v>
       </c>
@@ -6259,7 +6259,7 @@
       <c r="F116" s="13"/>
       <c r="G116" s="13"/>
     </row>
-    <row r="117" spans="2:7" s="17" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="117" spans="2:7" s="17" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B117" s="10">
         <v>99</v>
       </c>
@@ -6269,7 +6269,7 @@
       <c r="F117" s="13"/>
       <c r="G117" s="13"/>
     </row>
-    <row r="118" spans="2:7" s="17" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="118" spans="2:7" s="17" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B118" s="10">
         <v>100</v>
       </c>
@@ -6312,22 +6312,22 @@
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="3.703125" customWidth="1"/>
-    <col min="2" max="2" width="92.29296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.1171875" customWidth="1"/>
-    <col min="4" max="5" width="16.703125" customWidth="1"/>
-    <col min="6" max="17" width="16.703125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="3.69140625" customWidth="1"/>
+    <col min="2" max="2" width="92.3046875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.07421875" customWidth="1"/>
+    <col min="4" max="5" width="16.69140625" customWidth="1"/>
+    <col min="6" max="17" width="16.69140625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:17" s="5" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:17" s="5" customFormat="1" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="5" t="s">
         <v>121</v>
       </c>
       <c r="F2" s="16"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>56</v>
       </c>
@@ -6347,7 +6347,7 @@
       <c r="P4"/>
       <c r="Q4"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>56</v>
       </c>
@@ -6366,7 +6366,7 @@
       <c r="P5"/>
       <c r="Q5"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>56</v>
       </c>
@@ -6385,7 +6385,7 @@
       <c r="P6"/>
       <c r="Q6"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.4">
       <c r="G7"/>
       <c r="H7"/>
       <c r="I7"/>
@@ -6398,156 +6398,156 @@
       <c r="P7"/>
       <c r="Q7"/>
     </row>
-    <row r="10" spans="1:17" s="21" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
+    <row r="10" spans="1:17" s="21" customFormat="1" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="21" t="s">
         <v>125</v>
       </c>
       <c r="D10"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.4">
       <c r="B12" s="6" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.4">
       <c r="B14" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.4">
       <c r="B15" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.4">
       <c r="B16" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B17" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B18" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B20" s="6" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B21" s="6"/>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B22" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B23" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B24" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B25" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B26" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B27" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B28" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B29" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B30" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B31" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B32" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B33" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="35" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B35" s="6" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B37" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B38" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B39" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="40" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B40" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="41" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B41" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B42" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="43" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B43" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="45" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B45" s="6" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B47" t="s">
         <v>44</v>
       </c>
@@ -6562,7 +6562,7 @@
       <c r="P47"/>
       <c r="Q47"/>
     </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="48" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B48" t="s">
         <v>152</v>
       </c>
@@ -6576,15 +6576,15 @@
       <c r="P48"/>
       <c r="Q48"/>
     </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="50" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B50" s="6" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="51" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B51" s="6"/>
     </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="52" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B52" t="s">
         <v>154</v>
       </c>
@@ -6596,7 +6596,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="53" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B53" t="s">
         <v>155</v>
       </c>
@@ -6608,7 +6608,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="54" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B54" t="s">
         <v>156</v>
       </c>
@@ -6620,7 +6620,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="55" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B55" t="s">
         <v>157</v>
       </c>
@@ -6632,7 +6632,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="56" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B56" t="s">
         <v>158</v>
       </c>
@@ -6644,7 +6644,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="57" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B57" t="s">
         <v>159</v>
       </c>
@@ -6656,7 +6656,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="58" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B58" t="s">
         <v>160</v>
       </c>
@@ -6668,7 +6668,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="59" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B59" t="s">
         <v>161</v>
       </c>
@@ -6680,7 +6680,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="60" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B60" t="s">
         <v>162</v>
       </c>
@@ -6692,7 +6692,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="61" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B61" t="s">
         <v>163</v>
       </c>
@@ -6704,7 +6704,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="62" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B62" t="s">
         <v>164</v>
       </c>
@@ -6716,7 +6716,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="63" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B63" t="s">
         <v>165</v>
       </c>
@@ -6728,7 +6728,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="64" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B64" t="s">
         <v>166</v>
       </c>
@@ -6740,7 +6740,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="65" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B65" t="s">
         <v>167</v>
       </c>
@@ -6752,7 +6752,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="66" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B66" t="s">
         <v>168</v>
       </c>
@@ -6764,7 +6764,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B67" t="s">
         <v>169</v>
       </c>
@@ -6776,7 +6776,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="68" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B68" t="s">
         <v>170</v>
       </c>
@@ -6788,7 +6788,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="69" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B69" t="s">
         <v>171</v>
       </c>
@@ -6800,7 +6800,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="70" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B70" t="s">
         <v>172</v>
       </c>
@@ -6812,7 +6812,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="71" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B71" t="s">
         <v>173</v>
       </c>
@@ -6824,7 +6824,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="72" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B72" t="s">
         <v>174</v>
       </c>
@@ -6836,18 +6836,18 @@
         <v>174</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B73" s="6"/>
     </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="74" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B74" s="6" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="75" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B75" s="6"/>
     </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="76" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B76" t="s">
         <v>176</v>
       </c>
@@ -6863,7 +6863,7 @@
       <c r="P76"/>
       <c r="Q76"/>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B77" t="s">
         <v>177</v>
       </c>
@@ -6879,7 +6879,7 @@
       <c r="P77"/>
       <c r="Q77"/>
     </row>
-    <row r="78" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="78" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B78" t="s">
         <v>178</v>
       </c>
@@ -6895,7 +6895,7 @@
       <c r="P78"/>
       <c r="Q78"/>
     </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="79" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B79" t="s">
         <v>179</v>
       </c>
@@ -6911,7 +6911,7 @@
       <c r="P79"/>
       <c r="Q79"/>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B80" t="s">
         <v>180</v>
       </c>
@@ -6927,7 +6927,7 @@
       <c r="P80"/>
       <c r="Q80"/>
     </row>
-    <row r="81" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="81" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B81" t="s">
         <v>181</v>
       </c>
@@ -6943,7 +6943,7 @@
       <c r="P81"/>
       <c r="Q81"/>
     </row>
-    <row r="82" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="82" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B82" t="s">
         <v>182</v>
       </c>
@@ -6959,7 +6959,7 @@
       <c r="P82"/>
       <c r="Q82"/>
     </row>
-    <row r="83" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="83" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B83" t="s">
         <v>183</v>
       </c>
@@ -6975,7 +6975,7 @@
       <c r="P83"/>
       <c r="Q83"/>
     </row>
-    <row r="84" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="84" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B84" t="s">
         <v>184</v>
       </c>
@@ -6991,7 +6991,7 @@
       <c r="P84"/>
       <c r="Q84"/>
     </row>
-    <row r="85" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="85" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B85" t="s">
         <v>185</v>
       </c>
@@ -7007,22 +7007,22 @@
       <c r="P85"/>
       <c r="Q85"/>
     </row>
-    <row r="86" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="86" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B86" s="6"/>
     </row>
-    <row r="87" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="87" spans="2:17" x14ac:dyDescent="0.4">
       <c r="G87"/>
     </row>
-    <row r="88" spans="2:17" s="21" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
+    <row r="88" spans="2:17" s="21" customFormat="1" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="B88" s="21" t="s">
         <v>186</v>
       </c>
       <c r="D88"/>
     </row>
-    <row r="89" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="89" spans="2:17" x14ac:dyDescent="0.4">
       <c r="G89"/>
     </row>
-    <row r="90" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="90" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B90" s="7" t="s">
         <v>187</v>
       </c>
@@ -7030,13 +7030,13 @@
       <c r="F90"/>
       <c r="Q90"/>
     </row>
-    <row r="91" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="91" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B91" s="6"/>
       <c r="E91" s="3"/>
       <c r="F91"/>
       <c r="Q91"/>
     </row>
-    <row r="92" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="92" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B92" t="s">
         <v>36</v>
       </c>
@@ -7044,7 +7044,7 @@
       <c r="F92"/>
       <c r="Q92"/>
     </row>
-    <row r="93" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="93" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B93" t="str" cm="1">
         <f t="array" ref="B93:B97">_carb_only_table_01[]</f>
         <v>No leak detected</v>
@@ -7053,7 +7053,7 @@
       <c r="F93"/>
       <c r="Q93"/>
     </row>
-    <row r="94" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="94" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B94" t="str">
         <v>An intentional or allowable vent (i.e. the operator was aware of, and/or would not repair)</v>
       </c>
@@ -7061,7 +7061,7 @@
       <c r="F94"/>
       <c r="Q94"/>
     </row>
-    <row r="95" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="95" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B95" t="str">
         <v>Due to a temporary activity (i.e. would be resolved without corrective action when the activity is completed)</v>
       </c>
@@ -7069,7 +7069,7 @@
       <c r="F95"/>
       <c r="Q95"/>
     </row>
-    <row r="96" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="96" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B96" t="str">
         <v>Operator was aware of the leak prior to receiving the CARB plume notification and/or repairs were in progress</v>
       </c>
@@ -7077,7 +7077,7 @@
       <c r="F96"/>
       <c r="Q96"/>
     </row>
-    <row r="97" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="97" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B97" t="str">
         <v>An unintentional leak (i.e. the operator was not aware of, and could be repaired if discovered)</v>
       </c>
@@ -7085,23 +7085,23 @@
       <c r="F97"/>
       <c r="Q97"/>
     </row>
-    <row r="98" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="98" spans="2:17" x14ac:dyDescent="0.4">
       <c r="E98" s="3"/>
       <c r="F98"/>
       <c r="Q98"/>
     </row>
-    <row r="99" spans="2:17" s="21" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
+    <row r="99" spans="2:17" s="21" customFormat="1" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="B99" s="21" t="s">
         <v>188</v>
       </c>
       <c r="D99"/>
     </row>
-    <row r="100" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="100" spans="2:17" x14ac:dyDescent="0.4">
       <c r="E100" s="3"/>
       <c r="F100"/>
       <c r="Q100"/>
     </row>
-    <row r="101" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="101" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B101" s="7" t="s">
         <v>187</v>
       </c>
@@ -7109,90 +7109,90 @@
       <c r="F101"/>
       <c r="Q101"/>
     </row>
-    <row r="102" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="102" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B102" s="6"/>
       <c r="E102" s="3"/>
       <c r="F102"/>
       <c r="Q102"/>
     </row>
-    <row r="103" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="103" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B103" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="104" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="104" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B104" t="str" cm="1">
         <f t="array" ref="B104:B115">_carb_only_table_02[]</f>
         <v>Animal housing/barn/corral/lot</v>
       </c>
     </row>
-    <row r="105" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="105" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B105" t="str">
         <v>Biogas conditioning/upgrading equipment</v>
       </c>
     </row>
-    <row r="106" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="106" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B106" t="str">
         <v>Biogas moving/handling equipment</v>
       </c>
     </row>
-    <row r="107" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="107" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B107" t="str">
         <v>Digester component (other)</v>
       </c>
     </row>
-    <row r="108" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="108" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B108" t="str">
         <v>Digester cover</v>
       </c>
     </row>
-    <row r="109" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="109" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B109" t="str">
         <v>Effluent pond</v>
       </c>
     </row>
-    <row r="110" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="110" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B110" t="str">
         <v>Interconnection/pipeline</v>
       </c>
     </row>
-    <row r="111" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="111" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B111" t="str">
         <v>Manure collection pit</v>
       </c>
     </row>
-    <row r="112" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="112" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B112" t="str">
         <v>Manure separator</v>
       </c>
     </row>
-    <row r="113" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="113" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B113" t="str">
         <v>Open lagoon</v>
       </c>
     </row>
-    <row r="114" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="114" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B114" t="str">
         <v xml:space="preserve">Other </v>
       </c>
     </row>
-    <row r="115" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="115" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B115" t="str">
         <v>Stacking slab/stockpile/other manure storage</v>
       </c>
     </row>
-    <row r="118" spans="2:17" s="21" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
+    <row r="118" spans="2:17" s="21" customFormat="1" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="B118" s="21" t="s">
         <v>189</v>
       </c>
       <c r="D118"/>
     </row>
-    <row r="119" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="119" spans="2:17" x14ac:dyDescent="0.4">
       <c r="E119" s="3"/>
       <c r="F119"/>
       <c r="Q119"/>
     </row>
-    <row r="120" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="120" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B120" s="7" t="s">
         <v>187</v>
       </c>
@@ -7200,65 +7200,65 @@
       <c r="F120"/>
       <c r="Q120"/>
     </row>
-    <row r="121" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="121" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B121" s="6"/>
       <c r="E121" s="3"/>
       <c r="F121"/>
       <c r="Q121"/>
     </row>
-    <row r="122" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="122" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B122" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="123" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="123" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B123" t="str" cm="1">
         <f t="array" ref="B123:B129">_carb_only_table_03[]</f>
         <v>Construction activity</v>
       </c>
     </row>
-    <row r="124" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="124" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B124" t="str">
         <v>Damaged/broken component (e.g. tear in digester cover, loose flange/port/seal)</v>
       </c>
     </row>
-    <row r="125" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="125" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B125" t="str">
         <v>Maintenance/repair/testing activity</v>
       </c>
     </row>
-    <row r="126" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="126" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B126" t="str">
         <v>Manure management activity</v>
       </c>
     </row>
-    <row r="127" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="127" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B127" t="str">
         <v>Other</v>
       </c>
     </row>
-    <row r="128" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="128" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B128" t="str">
         <v>Venting-emergency/temporary</v>
       </c>
     </row>
-    <row r="129" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="129" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B129" t="str">
         <v>Venting-intentional/routine</v>
       </c>
     </row>
-    <row r="132" spans="2:17" s="21" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
+    <row r="132" spans="2:17" s="21" customFormat="1" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="B132" s="21" t="s">
         <v>190</v>
       </c>
       <c r="D132"/>
     </row>
-    <row r="133" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="133" spans="2:17" x14ac:dyDescent="0.4">
       <c r="E133" s="3"/>
       <c r="F133"/>
       <c r="Q133"/>
     </row>
-    <row r="134" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="134" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B134" s="7" t="s">
         <v>187</v>
       </c>
@@ -7266,40 +7266,40 @@
       <c r="F134"/>
       <c r="Q134"/>
     </row>
-    <row r="135" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="135" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B135" s="6"/>
       <c r="E135" s="3"/>
       <c r="F135"/>
       <c r="Q135"/>
     </row>
-    <row r="136" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="136" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B136" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="137" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="137" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B137" t="str" cm="1">
         <f t="array" ref="B137:B138">_carb_only_table_04[]</f>
         <v>Yes</v>
       </c>
     </row>
-    <row r="138" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="138" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B138" t="str">
         <v>No</v>
       </c>
     </row>
-    <row r="141" spans="2:17" s="21" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
+    <row r="141" spans="2:17" s="21" customFormat="1" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="B141" s="21" t="s">
         <v>191</v>
       </c>
       <c r="D141"/>
     </row>
-    <row r="142" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="142" spans="2:17" x14ac:dyDescent="0.4">
       <c r="E142" s="3"/>
       <c r="F142"/>
       <c r="Q142"/>
     </row>
-    <row r="143" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="143" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B143" s="7" t="s">
         <v>187</v>
       </c>
@@ -7307,18 +7307,18 @@
       <c r="F143"/>
       <c r="Q143"/>
     </row>
-    <row r="144" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="144" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B144" s="6"/>
       <c r="E144" s="3"/>
       <c r="F144"/>
       <c r="Q144"/>
     </row>
-    <row r="145" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="145" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B145" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="146" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="146" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B146" t="str" cm="1">
         <f t="array" ref="B146:C166">_carb_only_table_05[]</f>
         <v>Solid/dry scrape manure collection</v>
@@ -7327,7 +7327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="147" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B147" t="str">
         <v>Vacuum manure collection</v>
       </c>
@@ -7335,7 +7335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="148" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B148" t="str">
         <v>Liquid/flush manure collection</v>
       </c>
@@ -7343,7 +7343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="149" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B149" t="str">
         <v>Pasture</v>
       </c>
@@ -7351,7 +7351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="150" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B150" t="str">
         <v>Dry lot/corral</v>
       </c>
@@ -7359,7 +7359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="151" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B151" t="str">
         <v>Solid storage</v>
       </c>
@@ -7367,7 +7367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="152" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B152" t="str">
         <v>Solar drying</v>
       </c>
@@ -7375,7 +7375,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="153" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B153" t="str">
         <v>Composting (aerated, in vessel, windrows)</v>
       </c>
@@ -7383,7 +7383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="154" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B154" t="str">
         <v>Compost bedded pack barn</v>
       </c>
@@ -7391,7 +7391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="155" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B155" t="str">
         <v>Slatted floor pit storage</v>
       </c>
@@ -7399,7 +7399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="156" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B156" t="str">
         <v>Anaerobic Lagoon</v>
       </c>
@@ -7407,7 +7407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="157" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B157" t="str">
         <v>Anaerobic digester</v>
       </c>
@@ -7415,7 +7415,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="158" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B158" t="str">
         <v>Vermifiltration</v>
       </c>
@@ -7423,7 +7423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="159" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B159" t="str">
         <v>Liquid/slurry</v>
       </c>
@@ -7431,7 +7431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="160" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B160" t="str">
         <v>Mechanical separator (screens, centrifuge, press)</v>
       </c>
@@ -7439,7 +7439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="161" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B161" t="str">
         <v>Gravity-based separator (settling basin, sand lane)</v>
       </c>
@@ -7447,7 +7447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="162" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B162" t="str">
         <v>Weeping wall</v>
       </c>
@@ -7455,7 +7455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="163" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B163" t="str">
         <v>Flocculation</v>
       </c>
@@ -7463,7 +7463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="164" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B164" t="str">
         <v>Daily spread</v>
       </c>
@@ -7471,7 +7471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="165" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B165" t="str">
         <v>Land application (flood)</v>
       </c>
@@ -7479,7 +7479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="166" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B166" t="str">
         <v>Land application (subsurface drip)</v>
       </c>
@@ -7487,18 +7487,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="2:17" s="21" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
+    <row r="180" spans="2:17" s="21" customFormat="1" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="B180" s="21" t="s">
         <v>192</v>
       </c>
       <c r="D180"/>
     </row>
-    <row r="181" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="181" spans="2:17" x14ac:dyDescent="0.4">
       <c r="E181" s="3"/>
       <c r="F181"/>
       <c r="Q181"/>
     </row>
-    <row r="182" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="182" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B182" s="7" t="s">
         <v>187</v>
       </c>
@@ -7506,18 +7506,18 @@
       <c r="F182"/>
       <c r="Q182"/>
     </row>
-    <row r="183" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="183" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B183" s="6"/>
       <c r="E183" s="3"/>
       <c r="F183"/>
       <c r="Q183"/>
     </row>
-    <row r="184" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="184" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B184" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="185" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="185" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B185" t="str" cm="1">
         <f t="array" ref="B185:C194">_carb_only_table_06[]</f>
         <v>Biogas conditioning (e.g., hydrogen sulfide, moisture, particulate removal)</v>
@@ -7526,7 +7526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="186" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B186" t="str">
         <v>Biogas moving and handling equipement (e.g., blower, compressor, low pressure gas pipelines)</v>
       </c>
@@ -7534,7 +7534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="187" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B187" t="str">
         <v>Biomethane upgrading (e.g., membrane or other form of CO2 removal)</v>
       </c>
@@ -7542,7 +7542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="188" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B188" t="str">
         <v>Covered lagoon anaerobic digester</v>
       </c>
@@ -7550,7 +7550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="189" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B189" t="str">
         <v>In-vessel anaerobic digester</v>
       </c>
@@ -7558,7 +7558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="190" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B190" t="str">
         <v>Electricity generation or other combustion equipment</v>
       </c>
@@ -7566,7 +7566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="191" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B191" t="str">
         <v>Heating/process fuel equipment</v>
       </c>
@@ -7574,7 +7574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="192" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B192" t="str">
         <v>Fuel cells</v>
       </c>
@@ -7582,7 +7582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="193" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B193" t="str">
         <v>Common carrier gas pipeline (Interconnection point of receipt)</v>
       </c>
@@ -7590,7 +7590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="194" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B194" t="str">
         <v>Onsite fuel use or dispensing</v>
       </c>
@@ -7625,20 +7625,20 @@
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="3.703125" customWidth="1"/>
-    <col min="2" max="3" width="30.703125" customWidth="1"/>
-    <col min="4" max="9" width="8.703125" customWidth="1"/>
+    <col min="1" max="1" width="3.69140625" customWidth="1"/>
+    <col min="2" max="3" width="30.69140625" customWidth="1"/>
+    <col min="4" max="9" width="8.69140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" s="5" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:6" s="5" customFormat="1" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="5" t="s">
         <v>193</v>
       </c>
       <c r="F2" s="16"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>56</v>
       </c>
@@ -7646,7 +7646,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>56</v>
       </c>
@@ -7654,7 +7654,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>56</v>
       </c>
@@ -7662,7 +7662,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>56</v>
       </c>
@@ -7670,7 +7670,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="11" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
+    <row r="14" spans="1:6" s="11" customFormat="1" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="11" t="s">
         <v>198</v>
       </c>
@@ -7679,7 +7679,7 @@
       </c>
       <c r="F14" s="15"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B15" t="s">
         <v>200</v>
       </c>
@@ -7702,19 +7702,19 @@
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="3.703125" customWidth="1"/>
-    <col min="2" max="3" width="30.703125" customWidth="1"/>
+    <col min="1" max="1" width="3.69140625" customWidth="1"/>
+    <col min="2" max="3" width="30.69140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" s="5" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:6" s="5" customFormat="1" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="5" t="s">
         <v>193</v>
       </c>
       <c r="F2" s="16"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>56</v>
       </c>
@@ -7722,7 +7722,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>56</v>
       </c>
@@ -7730,7 +7730,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>56</v>
       </c>
@@ -7738,7 +7738,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>56</v>
       </c>
@@ -7746,12 +7746,12 @@
         <v>204</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.5"/>
-    <row r="10" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.5"/>
-    <row r="11" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.5"/>
-    <row r="12" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.5"/>
-    <row r="13" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.5"/>
-    <row r="14" spans="1:6" s="11" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
+    <row r="9" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="10" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="11" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="12" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="13" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="14" spans="1:6" s="11" customFormat="1" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="11" t="s">
         <v>205</v>
       </c>
@@ -7760,7 +7760,7 @@
       </c>
       <c r="F14" s="15"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B15" t="s">
         <v>207</v>
       </c>
@@ -7768,7 +7768,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B16" t="s">
         <v>209</v>
       </c>
@@ -7792,23 +7792,23 @@
       <selection activeCell="A11" sqref="A11:F71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="3.703125" customWidth="1"/>
-    <col min="2" max="2" width="25.1171875" customWidth="1"/>
-    <col min="3" max="3" width="16.29296875" customWidth="1"/>
-    <col min="4" max="4" width="51.87890625" customWidth="1"/>
-    <col min="5" max="5" width="16.29296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.69140625" customWidth="1"/>
+    <col min="2" max="2" width="25.07421875" customWidth="1"/>
+    <col min="3" max="3" width="16.3046875" customWidth="1"/>
+    <col min="4" max="4" width="51.84375" customWidth="1"/>
+    <col min="5" max="5" width="16.3046875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="99" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" s="5" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:6" s="5" customFormat="1" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="5" t="s">
         <v>211</v>
       </c>
       <c r="F2" s="16"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>56</v>
       </c>
@@ -7818,26 +7818,26 @@
       <c r="C4" s="1"/>
       <c r="F4" s="9"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C5" s="1"/>
       <c r="F5" s="9"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C6" s="1"/>
       <c r="F6" s="9"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C7" s="1"/>
       <c r="F7" s="9"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C8" s="1"/>
       <c r="F8" s="9"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="F9" s="9"/>
     </row>
-    <row r="10" spans="1:6" s="11" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
+    <row r="10" spans="1:6" s="11" customFormat="1" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="11" t="s">
         <v>198</v>
       </c>
@@ -7854,7 +7854,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B11" t="s">
         <v>200</v>
       </c>
@@ -7871,7 +7871,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B12" t="s">
         <v>200</v>
       </c>
@@ -7885,7 +7885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B13" t="s">
         <v>200</v>
       </c>
@@ -7899,7 +7899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B14" t="s">
         <v>200</v>
       </c>
@@ -7913,7 +7913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B15" t="s">
         <v>200</v>
       </c>
@@ -7927,7 +7927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B16" t="s">
         <v>200</v>
       </c>
@@ -7941,7 +7941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B17" t="s">
         <v>200</v>
       </c>
@@ -7955,7 +7955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B18" t="s">
         <v>200</v>
       </c>
@@ -7969,7 +7969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B19" t="s">
         <v>200</v>
       </c>
@@ -7983,7 +7983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B20" t="s">
         <v>200</v>
       </c>
@@ -7997,7 +7997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B21" t="s">
         <v>200</v>
       </c>
@@ -8011,7 +8011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B22" t="s">
         <v>200</v>
       </c>
@@ -8025,7 +8025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B23" t="s">
         <v>200</v>
       </c>
@@ -8039,7 +8039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B24" t="s">
         <v>200</v>
       </c>
@@ -8053,7 +8053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B25" t="s">
         <v>200</v>
       </c>
@@ -8067,7 +8067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B26" t="s">
         <v>200</v>
       </c>
@@ -8084,7 +8084,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B27" t="s">
         <v>200</v>
       </c>
@@ -8101,7 +8101,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B28" t="s">
         <v>200</v>
       </c>
@@ -8118,7 +8118,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B29" t="s">
         <v>200</v>
       </c>
@@ -8135,7 +8135,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B30" t="s">
         <v>200</v>
       </c>
@@ -8152,7 +8152,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B31" t="s">
         <v>200</v>
       </c>
@@ -8166,7 +8166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B32" t="s">
         <v>200</v>
       </c>
@@ -8183,7 +8183,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B33" t="s">
         <v>200</v>
       </c>
@@ -8197,7 +8197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B34" t="s">
         <v>200</v>
       </c>
@@ -8214,7 +8214,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B35" t="s">
         <v>200</v>
       </c>
@@ -8231,7 +8231,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B36" t="s">
         <v>200</v>
       </c>
@@ -8248,7 +8248,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B37" t="s">
         <v>200</v>
       </c>
@@ -8265,7 +8265,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="38" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B38" t="s">
         <v>200</v>
       </c>
@@ -8282,7 +8282,7 @@
         <v>7143</v>
       </c>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="39" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B39" t="s">
         <v>200</v>
       </c>
@@ -8296,7 +8296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="40" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B40" t="s">
         <v>200</v>
       </c>
@@ -8310,7 +8310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="41" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B41" t="s">
         <v>200</v>
       </c>
@@ -8324,7 +8324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="42" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B42" t="s">
         <v>200</v>
       </c>
@@ -8341,7 +8341,7 @@
         <v>36.076599999999999</v>
       </c>
     </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="43" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B43" t="s">
         <v>200</v>
       </c>
@@ -8358,7 +8358,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="44" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B44" t="s">
         <v>200</v>
       </c>
@@ -8375,7 +8375,7 @@
         <v>-119.44289999999999</v>
       </c>
     </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="45" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B45" t="s">
         <v>200</v>
       </c>
@@ -8389,7 +8389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="46" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B46" t="s">
         <v>200</v>
       </c>
@@ -8403,7 +8403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="47" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B47" t="s">
         <v>200</v>
       </c>
@@ -8417,7 +8417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="48" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B48" t="s">
         <v>200</v>
       </c>
@@ -8431,7 +8431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.5">
+    <row r="49" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B49" t="s">
         <v>200</v>
       </c>
@@ -8445,7 +8445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.5">
+    <row r="50" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B50" t="s">
         <v>200</v>
       </c>
@@ -8459,7 +8459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.5">
+    <row r="51" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B51" t="s">
         <v>200</v>
       </c>
@@ -8473,7 +8473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.5">
+    <row r="52" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B52" t="s">
         <v>200</v>
       </c>
@@ -8487,7 +8487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.5">
+    <row r="53" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B53" t="s">
         <v>200</v>
       </c>
@@ -8501,7 +8501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.5">
+    <row r="54" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B54" t="s">
         <v>200</v>
       </c>
@@ -8515,7 +8515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.5">
+    <row r="55" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B55" t="s">
         <v>200</v>
       </c>
@@ -8529,7 +8529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.5">
+    <row r="56" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B56" t="s">
         <v>200</v>
       </c>
@@ -8543,7 +8543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.5">
+    <row r="57" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B57" t="s">
         <v>200</v>
       </c>
@@ -8557,7 +8557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.5">
+    <row r="58" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B58" t="s">
         <v>200</v>
       </c>
@@ -8571,7 +8571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.5">
+    <row r="59" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B59" t="s">
         <v>200</v>
       </c>
@@ -8585,7 +8585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.5">
+    <row r="60" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B60" t="s">
         <v>200</v>
       </c>
@@ -8599,7 +8599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.5">
+    <row r="61" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B61" t="s">
         <v>200</v>
       </c>
@@ -8613,7 +8613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.5">
+    <row r="62" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B62" t="s">
         <v>200</v>
       </c>
@@ -8627,7 +8627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.5">
+    <row r="63" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B63" t="s">
         <v>200</v>
       </c>
@@ -8641,7 +8641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.5">
+    <row r="64" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B64" t="s">
         <v>200</v>
       </c>
@@ -8655,7 +8655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="65" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B65" t="s">
         <v>200</v>
       </c>
@@ -8669,7 +8669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="66" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B66" t="s">
         <v>200</v>
       </c>
@@ -8683,7 +8683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="67" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B67" t="s">
         <v>200</v>
       </c>
@@ -8697,7 +8697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="68" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B68" t="s">
         <v>200</v>
       </c>
@@ -8714,7 +8714,7 @@
         <v>45782.517916666664</v>
       </c>
     </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="69" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B69" t="s">
         <v>200</v>
       </c>
@@ -8728,7 +8728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="70" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B70" t="s">
         <v>200</v>
       </c>
@@ -8742,7 +8742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="71" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B71" t="s">
         <v>200</v>
       </c>
@@ -8768,6 +8768,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="1aa5fbe9-a248-4c55-92b7-8f3861f8fb32">
@@ -8776,15 +8785,6 @@
     <TaxCatchAll xmlns="e20ceb87-0d79-402a-b4b9-75d78589c76d" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9023,20 +9023,20 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{393EEAE4-A9A0-45DD-A8E7-CAAABB0BE8BF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{567EEBE1-6545-4ECC-A20C-42A5CA5522CB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="1aa5fbe9-a248-4c55-92b7-8f3861f8fb32"/>
     <ds:schemaRef ds:uri="e20ceb87-0d79-402a-b4b9-75d78589c76d"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{393EEAE4-A9A0-45DD-A8E7-CAAABB0BE8BF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
